--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3028.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3028.xlsx
@@ -354,7 +354,7 @@
         <v>1.813034168256205</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.953308118765897</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3028.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3028.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.163571749263125</v>
+        <v>1.267206788063049</v>
       </c>
       <c r="B1">
-        <v>1.813034168256205</v>
+        <v>1.823354363441467</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.810254096984863</v>
       </c>
       <c r="D1">
-        <v>1.953308118765897</v>
+        <v>1.60743772983551</v>
       </c>
       <c r="E1">
-        <v>1.204852151045593</v>
+        <v>0.9494442343711853</v>
       </c>
     </row>
   </sheetData>
